--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-10000$-zero.desktop.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-10000$-zero.desktop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20558432-6438-0F49-B4D2-6AC366B09B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D24D4BB-C9FC-004F-B3E8-0AC44B948CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5000" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,26 +103,27 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>EXPAND</t>
-  </si>
-  <si>
     <t>工作台</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zero.desktop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>desktop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>c2dfcd73-236d-494a-9e7b-96c2b49af815</t>
   </si>
   <si>
     <t>BAG-MENU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/main/index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -162,22 +163,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,10 +282,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +564,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
@@ -583,16 +590,16 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
@@ -660,11 +667,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8">
         <v>10000</v>
@@ -673,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>23</v>
+      <c r="I5" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="J5" s="15"/>
     </row>
@@ -690,7 +697,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>